--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1234,7 +1234,7 @@
         <v>12.98</v>
       </c>
       <c r="T7">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="U7">
         <v>71.94</v>
@@ -1344,7 +1344,7 @@
         <v>9.32</v>
       </c>
       <c r="T8">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="U8">
         <v>88.09</v>
@@ -1392,7 +1392,7 @@
         <v>52.17</v>
       </c>
       <c r="AJ8">
-        <v>0.00375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1454,7 +1454,7 @@
         <v>5.55</v>
       </c>
       <c r="T9">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="U9">
         <v>0.6</v>
@@ -1502,7 +1502,7 @@
         <v>42.21</v>
       </c>
       <c r="AJ9">
-        <v>0.00375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1564,7 +1564,7 @@
         <v>6.04</v>
       </c>
       <c r="T10">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="U10">
         <v>0.47</v>
@@ -1674,7 +1674,7 @@
         <v>3.74</v>
       </c>
       <c r="T11">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="U11">
         <v>0.36</v>
